--- a/xlsx/以色列_intext.xlsx
+++ b/xlsx/以色列_intext.xlsx
@@ -29,7 +29,7 @@
     <t>西亚</t>
   </si>
   <si>
-    <t>政策_政策_美國_以色列</t>
+    <t>体育运动_体育运动_伊朗_以色列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
@@ -440,352 +440,352 @@
     <t>特拉维夫</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>以色列城市列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
+  </si>
+  <si>
+    <t>聯合國大會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>巴勒斯坦託管地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A181%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>联合国大会181号决议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7%E7%8D%A8%E7%AB%8B%E5%80%8B%E9%AB%94</t>
+  </si>
+  <si>
+    <t>耶路撒冷獨立個體</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/British_Mandate_for_Palestine_(legal_instrument)</t>
+  </si>
+  <si>
+    <t>en-British Mandate for Palestine (legal instrument)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/World_Zionist_Organization</t>
+  </si>
+  <si>
+    <t>en-World Zionist Organization</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jewish_Agency_for_Israel</t>
+  </si>
+  <si>
+    <t>en-Jewish Agency for Israel</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E6%9C%AC-%E5%8F%A4%E9%87%8C%E5%AE%89</t>
+  </si>
+  <si>
+    <t>戴维·本-古里安</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%AE%B6%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>以色列家园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%AD%E6%9D%B1%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>第一次中東戰爭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%A5%E5%86%B2%E7%AA%81</t>
+  </si>
+  <si>
+    <t>阿以冲突</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>西奈半岛</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Southern_Lebanon</t>
+  </si>
+  <si>
+    <t>en-Southern Lebanon</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%88%E8%98%AD%E9%AB%98%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>戈蘭高地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7</t>
+  </si>
+  <si>
+    <t>東耶路撒冷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%B7%B4%E8%A1%9D%E7%AA%81</t>
+  </si>
+  <si>
+    <t>以巴衝突</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E4%B8%AD%E5%A4%AE%E7%BB%9F%E8%AE%A1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>以色列中央统计局</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Israeli_Jews</t>
+  </si>
+  <si>
+    <t>en-Israeli Jews</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Negev_Bedouin</t>
+  </si>
+  <si>
+    <t>en-Negev Bedouin</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%B2%81%E5%85%B9%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>德鲁兹派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%BE%99%E5%B0%BC%E7%A4%BC%E6%95%99%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>马龙尼礼教会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>撒馬利亞人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%A7%86%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>多姆人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%A7%86%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>罗姆人</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Black_Hebrew_Israelites</t>
+  </si>
+  <si>
+    <t>en-Black Hebrew Israelites</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>撒哈拉以南非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>亚美尼亚人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E7%9A%84%E5%88%87%E7%88%BE%E5%85%8B%E6%96%AF%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>以色列的切爾克斯人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%88%B9%E6%B0%91</t>
+  </si>
+  <si>
+    <t>越南船民</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Basic_Laws_of_Israel</t>
+  </si>
+  <si>
+    <t>en-Basic Laws of Israel</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jewish_and_democratic_state</t>
+  </si>
+  <si>
+    <t>en-Jewish and democratic state</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>代議民主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
+  </si>
+  <si>
+    <t>比例代表制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%8D%E9%80%89%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>普遍选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E8%BE%BE%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>发达国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>经济合作与发展组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%8F%A3%E9%A2%84%E6%9C%9F%E5%AF%BF%E5%91%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国人口预期寿命列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84</t>
+  </si>
+  <si>
+    <t>雅各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E6%92%92</t>
+  </si>
+  <si>
+    <t>以撒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%BF</t>
+  </si>
+  <si>
+    <t>天使</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>上帝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%90%E5%90%8D</t>
+  </si>
+  <si>
+    <t>赐名</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%8D%81%E4%BA%8C%E6%94%AF%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>以色列十二支派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%8B%E7%A5%96</t>
+  </si>
+  <si>
+    <t>始祖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%BA%AB%E5%BE%B7%E9%9B%86%E5%9C%98</t>
+  </si>
+  <si>
+    <t>利庫德集團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E7%B8%BD%E7%90%86</t>
+  </si>
+  <si>
+    <t>以色列總理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E7%BA%B3%E8%B5%AB%E5%A7%86%C2%B7%E8%B4%9D%E4%BA%AC</t>
+  </si>
+  <si>
+    <t>梅纳赫姆·贝京</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%83</t>
+  </si>
+  <si>
+    <t>聯合國安理會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
+  </si>
+  <si>
+    <t>國際法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9D%9F</t>
+  </si>
+  <si>
+    <t>約束</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%86%9B%E9%98%9F</t>
+  </si>
+  <si>
+    <t>以色列军队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%9C%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>以色列國會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7</t>
+  </si>
+  <si>
+    <t>西耶路撒冷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
+  </si>
+  <si>
+    <t>首都</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>阿拉伯世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E7%90%86%E4%BC%9A478%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>联合国安理会478号决议</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
     <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>以色列城市列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
-  </si>
-  <si>
-    <t>聯合國大會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>巴勒斯坦託管地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A181%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>联合国大会181号决议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7%E7%8D%A8%E7%AB%8B%E5%80%8B%E9%AB%94</t>
-  </si>
-  <si>
-    <t>耶路撒冷獨立個體</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/British_Mandate_for_Palestine_(legal_instrument)</t>
-  </si>
-  <si>
-    <t>en-British Mandate for Palestine (legal instrument)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/World_Zionist_Organization</t>
-  </si>
-  <si>
-    <t>en-World Zionist Organization</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jewish_Agency_for_Israel</t>
-  </si>
-  <si>
-    <t>en-Jewish Agency for Israel</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E6%9C%AC-%E5%8F%A4%E9%87%8C%E5%AE%89</t>
-  </si>
-  <si>
-    <t>戴维·本-古里安</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%AE%B6%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>以色列家园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%AD%E6%9D%B1%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>第一次中東戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%A5%E5%86%B2%E7%AA%81</t>
-  </si>
-  <si>
-    <t>阿以冲突</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>西奈半岛</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Southern_Lebanon</t>
-  </si>
-  <si>
-    <t>en-Southern Lebanon</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%88%E8%98%AD%E9%AB%98%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>戈蘭高地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7</t>
-  </si>
-  <si>
-    <t>東耶路撒冷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%B7%B4%E8%A1%9D%E7%AA%81</t>
-  </si>
-  <si>
-    <t>以巴衝突</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E4%B8%AD%E5%A4%AE%E7%BB%9F%E8%AE%A1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>以色列中央统计局</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Israeli_Jews</t>
-  </si>
-  <si>
-    <t>en-Israeli Jews</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Negev_Bedouin</t>
-  </si>
-  <si>
-    <t>en-Negev Bedouin</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%B2%81%E5%85%B9%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>德鲁兹派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%BE%99%E5%B0%BC%E7%A4%BC%E6%95%99%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>马龙尼礼教会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>撒馬利亞人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%A7%86%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>多姆人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%A7%86%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>罗姆人</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Black_Hebrew_Israelites</t>
-  </si>
-  <si>
-    <t>en-Black Hebrew Israelites</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>撒哈拉以南非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>亚美尼亚人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E7%9A%84%E5%88%87%E7%88%BE%E5%85%8B%E6%96%AF%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>以色列的切爾克斯人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%88%B9%E6%B0%91</t>
-  </si>
-  <si>
-    <t>越南船民</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Basic_Laws_of_Israel</t>
-  </si>
-  <si>
-    <t>en-Basic Laws of Israel</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jewish_and_democratic_state</t>
-  </si>
-  <si>
-    <t>en-Jewish and democratic state</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>代議民主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
-  </si>
-  <si>
-    <t>比例代表制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%8D%E9%80%89%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>普遍选举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E8%BE%BE%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>发达国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>经济合作与发展组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%8F%A3%E9%A2%84%E6%9C%9F%E5%AF%BF%E5%91%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国人口预期寿命列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84</t>
-  </si>
-  <si>
-    <t>雅各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E6%92%92</t>
-  </si>
-  <si>
-    <t>以撒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%BF</t>
-  </si>
-  <si>
-    <t>天使</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D</t>
-  </si>
-  <si>
-    <t>上帝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%90%E5%90%8D</t>
-  </si>
-  <si>
-    <t>赐名</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%8D%81%E4%BA%8C%E6%94%AF%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>以色列十二支派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%8B%E7%A5%96</t>
-  </si>
-  <si>
-    <t>始祖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%BA%AB%E5%BE%B7%E9%9B%86%E5%9C%98</t>
-  </si>
-  <si>
-    <t>利庫德集團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E7%B8%BD%E7%90%86</t>
-  </si>
-  <si>
-    <t>以色列總理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E7%BA%B3%E8%B5%AB%E5%A7%86%C2%B7%E8%B4%9D%E4%BA%AC</t>
-  </si>
-  <si>
-    <t>梅纳赫姆·贝京</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%83</t>
-  </si>
-  <si>
-    <t>聯合國安理會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
-  </si>
-  <si>
-    <t>國際法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9D%9F</t>
-  </si>
-  <si>
-    <t>約束</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%86%9B%E9%98%9F</t>
-  </si>
-  <si>
-    <t>以色列军队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%9C%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>以色列國會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7</t>
-  </si>
-  <si>
-    <t>西耶路撒冷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
-  </si>
-  <si>
-    <t>首都</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>阿拉伯世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E7%90%86%E4%BC%9A478%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>联合国安理会478号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
@@ -6859,7 +6859,7 @@
         <v>96</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -7526,7 +7526,7 @@
         <v>142</v>
       </c>
       <c r="G72" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -7555,7 +7555,7 @@
         <v>144</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -7613,7 +7613,7 @@
         <v>148</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -7642,7 +7642,7 @@
         <v>150</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -7729,7 +7729,7 @@
         <v>156</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -7758,7 +7758,7 @@
         <v>158</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -7781,10 +7781,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -7810,10 +7810,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -7845,7 +7845,7 @@
         <v>162</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -7874,7 +7874,7 @@
         <v>164</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -7903,7 +7903,7 @@
         <v>166</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -7932,7 +7932,7 @@
         <v>168</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -7961,7 +7961,7 @@
         <v>170</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -7990,7 +7990,7 @@
         <v>172</v>
       </c>
       <c r="G88" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -8019,7 +8019,7 @@
         <v>174</v>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -8048,7 +8048,7 @@
         <v>176</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -8071,13 +8071,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -8100,13 +8100,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -8164,7 +8164,7 @@
         <v>182</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -8193,7 +8193,7 @@
         <v>184</v>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -8541,7 +8541,7 @@
         <v>208</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -8570,7 +8570,7 @@
         <v>210</v>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -8599,7 +8599,7 @@
         <v>212</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -8628,7 +8628,7 @@
         <v>214</v>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -8651,13 +8651,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -8680,10 +8680,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F112" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -8738,10 +8738,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -8802,7 +8802,7 @@
         <v>220</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -8825,13 +8825,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -8854,13 +8854,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F118" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -8889,7 +8889,7 @@
         <v>224</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -8918,7 +8918,7 @@
         <v>226</v>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -9005,7 +9005,7 @@
         <v>232</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -9034,7 +9034,7 @@
         <v>234</v>
       </c>
       <c r="G124" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -9063,7 +9063,7 @@
         <v>236</v>
       </c>
       <c r="G125" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -9092,7 +9092,7 @@
         <v>238</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -9179,7 +9179,7 @@
         <v>244</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -9237,7 +9237,7 @@
         <v>248</v>
       </c>
       <c r="G131" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -9260,10 +9260,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -9289,13 +9289,13 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -9324,7 +9324,7 @@
         <v>252</v>
       </c>
       <c r="G134" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -9353,7 +9353,7 @@
         <v>254</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -9382,7 +9382,7 @@
         <v>256</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -9411,7 +9411,7 @@
         <v>258</v>
       </c>
       <c r="G137" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -11203,10 +11203,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F199" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G199" t="n">
         <v>26</v>
@@ -11261,10 +11261,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F201" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -11696,10 +11696,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F216" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -16626,10 +16626,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F386" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -17032,10 +17032,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F400" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G400" t="n">
         <v>21</v>
@@ -17467,10 +17467,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F415" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -18395,10 +18395,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F447" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G447" t="n">
         <v>3</v>
@@ -20019,10 +20019,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F503" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -22049,10 +22049,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F573" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -22252,10 +22252,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F580" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -23760,10 +23760,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F632" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G632" t="n">
         <v>2</v>
@@ -24775,10 +24775,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F667" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
